--- a/day-to-day.xlsx
+++ b/day-to-day.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>圈子:帖子详情页 数据选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,12 +36,16 @@
     <t>NSAttributedString 框架了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>✅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +56,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -75,8 +97,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -87,7 +111,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -429,88 +455,94 @@
     <col min="2" max="2" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2">
         <v>42671</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>42672</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>42673</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>42675</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>42676</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>42677</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>42678</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>42679</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>42680</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>42681</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>42682</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>42683</v>
       </c>
@@ -566,6 +598,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
